--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1449080.726140787</v>
+        <v>-1451978.559127239</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14815385.93902983</v>
+        <v>14815385.93902982</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>158.9897392454093</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.6037769629273</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>167.6682923486906</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.7878997398103</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.76162451543809</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>53.6680129241005</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>227.2924469471008</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>77.29049401906113</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>353.1459972433406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>249.3718516103037</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>111.0967033622926</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.63274318687633</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>83.07554622347736</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>249.3718516103037</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.3659745987594</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>35.68372264725048</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>224.8135144063191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>127.9967681169588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>101.6969570046971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1338.355738489329</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C2" t="n">
-        <v>1338.355738489329</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D2" t="n">
-        <v>1338.355738489329</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1338.355738489329</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2527.787179554899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2309.152512526961</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.152512526961</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1978.089625183391</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1625.320969913277</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.855211652197</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.855211652197</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1723320447962</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0556926324605</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>416.5124000972908</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.1727159660345</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C8" t="n">
-        <v>877.1727159660345</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1727159660345</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>877.1727159660345</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.312047941846</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.1727159660345</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4966,40 +4966,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
         <v>1591.001293180573</v>
@@ -5039,19 +5039,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3125385470848</v>
+        <v>422.5594898197622</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>892.189873607444</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1511.709654113219</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.467264779579</v>
+        <v>2232.714216052256</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.752242696685</v>
+        <v>2969.999193969362</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5072,19 +5072,19 @@
         <v>4404.156740844761</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>94.85569562249445</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>242.5036773743404</v>
       </c>
       <c r="K12" t="n">
-        <v>571.9733873631765</v>
+        <v>573.0124199376992</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.705720206928</v>
+        <v>729.4148436945767</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1321.433197946704</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1321.433197946704</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.635877180809</v>
+        <v>1868.309672946898</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.219395606885</v>
+        <v>2287.893191372974</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.5003763580115</v>
+        <v>785.2861815325904</v>
       </c>
       <c r="C13" t="n">
-        <v>783.5641934301046</v>
+        <v>616.3499986046835</v>
       </c>
       <c r="D13" t="n">
-        <v>633.4475540177689</v>
+        <v>466.2333591923477</v>
       </c>
       <c r="E13" t="n">
-        <v>485.5344604353758</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="G13" t="n">
         <v>318.3202656099546</v>
@@ -5221,28 +5221,28 @@
         <v>2429.380814232059</v>
       </c>
       <c r="R13" t="n">
-        <v>2417.63056858875</v>
+        <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.46037832768</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.46037832768</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1945.384164642407</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.69967643652</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1401.282506399559</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X13" t="n">
-        <v>1173.292955501542</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y13" t="n">
-        <v>952.5003763580115</v>
+        <v>897.5050738177345</v>
       </c>
     </row>
     <row r="14">
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.918459243566</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U14" t="n">
         <v>4152.265981642434</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>94.85569562249445</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4646447998178</v>
+        <v>242.5036773743404</v>
       </c>
       <c r="K15" t="n">
-        <v>571.9733873631765</v>
+        <v>573.0124199376992</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.705720206928</v>
+        <v>1063.74475278145</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.724074459055</v>
+        <v>1655.763107033578</v>
       </c>
       <c r="N15" t="n">
-        <v>1903.635877180809</v>
+        <v>1655.763107033578</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.635877180809</v>
+        <v>2202.639582033772</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.219395606885</v>
+        <v>2287.893191372974</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="R15" t="n">
         <v>2553.780669592131</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>723.0535807419819</v>
+        <v>676.7124946742043</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0374447836391</v>
+        <v>676.7124946742043</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9208053713033</v>
+        <v>526.5958552618686</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9208053713033</v>
+        <v>526.5958552618686</v>
       </c>
       <c r="F16" t="n">
-        <v>261.030857873393</v>
+        <v>379.7059077639582</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>212.491712938537</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>176.447548648385</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1125.494624715752</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.494624715752</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y16" t="n">
-        <v>904.7020455722217</v>
+        <v>676.7124946742043</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.4644740681601</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>465.5282911402533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2317.673418815656</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2098.071953838597</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.1129388983999</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580114</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979287</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7366,10 +7366,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954156</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>195.6933023752737</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>147.6608393531964</v>
       </c>
       <c r="F2" t="n">
-        <v>219.086883914265</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.6341616931263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>38.46332039683776</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.537044377342596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>68.73527681964467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.54800840420723</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.537044377342269</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.537044377342596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>3.880846499868454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>104.7702671447034</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>61.70948393027186</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.02951788468583</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>38.13892827624255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1108254.770964085</v>
+        <v>1108254.770964086</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116249.9338018859</v>
+        <v>116249.9338018858</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26326,34 +26326,34 @@
         <v>141148.1099675715</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185975</v>
+        <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
         <v>5759.938886718171</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670451</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668170.1180767361</v>
+        <v>-668562.00916137</v>
       </c>
       <c r="C6" t="n">
         <v>-140241.2742648913</v>
       </c>
       <c r="D6" t="n">
-        <v>-140241.2742648913</v>
+        <v>-140241.2742648912</v>
       </c>
       <c r="E6" t="n">
-        <v>-901909.1972162201</v>
+        <v>-901945.4000699153</v>
       </c>
       <c r="F6" t="n">
-        <v>34482.21230237746</v>
+        <v>34446.00944868206</v>
       </c>
       <c r="G6" t="n">
-        <v>27336.62552938308</v>
+        <v>27301.88760394743</v>
       </c>
       <c r="H6" t="n">
-        <v>35060.53252017351</v>
+        <v>35025.79459473782</v>
       </c>
       <c r="I6" t="n">
-        <v>35060.53252017348</v>
+        <v>35025.79459473782</v>
       </c>
       <c r="J6" t="n">
-        <v>-141362.6866724194</v>
+        <v>-141397.4245978551</v>
       </c>
       <c r="K6" t="n">
-        <v>8032.024013938528</v>
+        <v>8032.024013938644</v>
       </c>
       <c r="L6" t="n">
+        <v>27459.74200757037</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-96748.7687004881</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27459.74200757038</v>
+      </c>
+      <c r="O6" t="n">
         <v>27459.74200757036</v>
       </c>
-      <c r="M6" t="n">
-        <v>-96748.76870048817</v>
-      </c>
-      <c r="N6" t="n">
-        <v>27459.74200757033</v>
-      </c>
-      <c r="O6" t="n">
-        <v>27459.74200757033</v>
-      </c>
       <c r="P6" t="n">
-        <v>8032.024013938659</v>
+        <v>8032.024013938571</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>234.2695307190654</v>
       </c>
       <c r="F2" t="n">
-        <v>187.7891618274464</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.747420460280921</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>211.9432009386587</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.67233813113108</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>164.9166404279943</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>155.4413947163798</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>329.5855517226503</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.25950038248487</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31835,7 +31835,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31844,13 +31844,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>296.5366259989424</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688754</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426204</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32072,7 +32072,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>382.7677754386397</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>220.0891643226154</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>456.5952253539618</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>301.9817606876392</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>638.4800548179292</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>332.0634613856469</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>739.5040280119352</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35492,13 +35492,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>157.9822462190682</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855421</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>552.400479798176</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>251.4260633553063</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>86.11475690828513</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>161.9999866016177</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>496.3460208959108</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
